--- a/testing_03112024/cv/cross_validation_results.xlsx
+++ b/testing_03112024/cv/cross_validation_results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.882917949788611</v>
+        <v>0.8783182838352733</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8870816271764379</v>
+        <v>0.8813073839867103</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9001355210940893</v>
+        <v>0.8890575236400775</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8813782034552953</v>
+        <v>0.8818949318857978</v>
       </c>
     </row>
     <row r="3">
